--- a/PlainTimeInvariant/tables/IneqRestrict.xlsx
+++ b/PlainTimeInvariant/tables/IneqRestrict.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myself/Documents/ogr-external-projects/ecb-bear/BEAR-toolbox/tbx/sandbox/gui/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myself/Documents/ogr-external-projects/ecb-bear/BEARX-GUI-Examples/PlainTimeInvariant/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415F69D4-08C2-134E-B67A-A874C7BB149B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E017B0F6-7F55-2440-A5C1-6DCA8762E396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="820" windowWidth="28160" windowHeight="17440"/>
+    <workbookView xWindow="1040" yWindow="820" windowWidth="28160" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" fullCalcOnLoad="true"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jaromir Benes</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Inequality (sign) restrictions</t>
   </si>
@@ -292,13 +292,19 @@
   </si>
   <si>
     <t>POL</t>
+  </si>
+  <si>
+    <t>&gt;0 [1, 2]</t>
+  </si>
+  <si>
+    <t>&lt;0 [1, 2]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -308,12 +314,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <name val="Grandview"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Grandview"/>
     </font>
     <font>
@@ -352,12 +352,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -365,17 +365,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,7 +390,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -545,7 +541,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -569,9 +565,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -595,7 +591,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -630,7 +626,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -648,7 +644,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -673,7 +669,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -712,54 +708,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BAF4E2-48C5-FB44-B988-247AEE8C3DA3}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="1" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="4.7109375" customWidth="true"/>
-    <col min="3" max="3" width="4.7109375" customWidth="true"/>
-    <col min="4" max="4" width="4.7109375" customWidth="true"/>
-    <col min="5" max="19" width="18.375" customWidth="true"/>
+    <col min="1" max="1" width="31.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="19" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
